--- a/data/SelfReport.xlsx
+++ b/data/SelfReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B6F72-FB65-4281-A694-5ACB05183FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9EE3D6-CF69-417E-921A-F18380BC667F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="7">
   <si>
     <t>אדישות Apathy</t>
   </si>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2713,19 +2713,835 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>1025</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>1025</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>1025</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>1025</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1025</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>1025</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>1026</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>1026</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1026</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>1026</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>1026</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>1026</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>1024</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>1024</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>1024</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>1024</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>1024</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>1024</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>1027</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>1027</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>1027</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>1027</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>1027</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>1027</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>1020</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>1020</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>1020</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>1020</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>1020</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>1020</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>1028</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>1028</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>1028</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>1028</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>1028</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>1028</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1030</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>1030</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>1030</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>1030</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>1030</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>1030</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>1031</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>1031</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>1031</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>1031</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>1031</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>1031</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>6</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B187" t="s">
         <v>6</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C187" t="s">
         <v>6</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D187" t="s">
         <v>6</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E187" t="s">
         <v>6</v>
       </c>
     </row>
